--- a/config_11.10/by3d_shtx_config.xlsx
+++ b/config_11.10/by3d_shtx_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duchao\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29280" windowHeight="11790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29280" windowHeight="11790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task_info" sheetId="1" r:id="rId1"/>
@@ -71,11 +71,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>|层数</t>
+    <t>extra_award_img|额外奖励图片(带{})</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>extra_award_img|额外奖励图片(带{})</t>
+    <t>layer|层数</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -455,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -549,10 +549,10 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -561,6 +561,9 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>

--- a/config_11.10/by3d_shtx_config.xlsx
+++ b/config_11.10/by3d_shtx_config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="139">
   <si>
     <t>line|行号</t>
   </si>
@@ -49,24 +49,9 @@
     <t>extra_award_txt|额外奖励描述(带{})</t>
   </si>
   <si>
-    <t>ty_icon_jb</t>
-  </si>
-  <si>
     <t>捕鱼获得金币10万</t>
   </si>
   <si>
-    <t>"ty_icon_jb","ty_icon_yb_1","3dby_btn_sd"</t>
-  </si>
-  <si>
-    <t>"金币*100","鱼币*1000","锁定*1"</t>
-  </si>
-  <si>
-    <t>"3dby_btn_sd",</t>
-  </si>
-  <si>
-    <t>"锁定*1",</t>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -76,6 +61,501 @@
   </si>
   <si>
     <t>layer|层数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计开炮数500发</t>
+  </si>
+  <si>
+    <t>捕鱼任意鱼30条</t>
+  </si>
+  <si>
+    <t>使用3次锁定</t>
+  </si>
+  <si>
+    <t>使用3次冰冻</t>
+  </si>
+  <si>
+    <t>捕获小丑鱼10条</t>
+  </si>
+  <si>
+    <t>捕获小燕鱼10条</t>
+  </si>
+  <si>
+    <t>捕获小黄鳍10条</t>
+  </si>
+  <si>
+    <t>捕获黄金灯笼鱼5条</t>
+  </si>
+  <si>
+    <t>捕获黄金海龟5只</t>
+  </si>
+  <si>
+    <t>捕获大金鲨3条</t>
+  </si>
+  <si>
+    <t>捕获任意黄金鱼8条</t>
+  </si>
+  <si>
+    <t>捕鱼活动鱼1条</t>
+  </si>
+  <si>
+    <t>捕鱼获得金币50万</t>
+  </si>
+  <si>
+    <t>累计开炮数1000发</t>
+  </si>
+  <si>
+    <t>捕鱼任意鱼100条</t>
+  </si>
+  <si>
+    <t>捕获河豚20条</t>
+  </si>
+  <si>
+    <t>捕获小灯笼20条</t>
+  </si>
+  <si>
+    <t>捕获小旗鱼20条</t>
+  </si>
+  <si>
+    <t>捕获小水母10条</t>
+  </si>
+  <si>
+    <t>捕获小章鱼10条</t>
+  </si>
+  <si>
+    <t>捕获黄金灯笼鱼8条</t>
+  </si>
+  <si>
+    <t>捕获黄金海龟8只</t>
+  </si>
+  <si>
+    <t>捕获大金鲨5条</t>
+  </si>
+  <si>
+    <t>捕获黄金鱼10条</t>
+  </si>
+  <si>
+    <t>捕鱼活动鱼3条</t>
+  </si>
+  <si>
+    <t>捕鱼获得金币300万（500倍炮以上）</t>
+  </si>
+  <si>
+    <t>累计开炮数2000发（500倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕鱼任意鱼200条（500倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获狮子鱼20条（500倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获蝴蝶鱼20条（500倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获20倍以上的鱼20条（500倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获30倍以上的鱼10条（500倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获黄金狮子鱼8条（500倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获黄金海龟8只（500倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获大金鲨5条（500倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获黄金鱼15条（500倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕鱼活动鱼3条（500倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获BOSS鱼1只（500倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕鱼获得金币500万（1000倍炮以上）</t>
+  </si>
+  <si>
+    <t>累计开炮数3000发（1000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕鱼任意鱼300条（1000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获巨大小丑鱼20条（1000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获巨大灯笼鱼20条（1000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获巨大燕鱼20条（1000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获30倍以上的鱼30条（1000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获50倍以上的鱼20条（1000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获金蟾10只（1000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获黄金锤头鲨10条（1000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获宝藏鳄鱼3只（1000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获黄金鱼20条（1000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕鱼活动鱼5条（1000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕鱼获得金币1000万（5000倍炮以上）</t>
+  </si>
+  <si>
+    <t>累计开炮数5000发（5000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕鱼任意鱼500条（5000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获魔鬼鱼30条（5000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获虎鲸30条（5000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获100倍以上的鱼20条（5000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获大金鲨20只（5000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获80倍以上的鱼20条（5000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获金蟾20只（5000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获黄金锤头鲨20条（5000倍炮以上）</t>
+  </si>
+  <si>
+    <r>
+      <t>捕获boss鱼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>条（5000倍炮以上）</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获黄金鱼50条（5000倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼活动鱼10条（5000倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼获得金币1亿（10000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获100倍以上的鱼50条（10000倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获boss鱼5条（10000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获黄金鱼50条（10000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕鱼任意鱼1000条（10000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕鱼活动鱼10条（10000倍炮以上）</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu29</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu36</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu31</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu22</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu25</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_ljpd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_mrzz</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_bh</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_jn</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_hd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_js</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu32</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu48</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu34</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu33</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_boss</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu23</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_gb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_gb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu45</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu46</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu37</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu21</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu51</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu36</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu32</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu29</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu43</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu47</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"com_icon_yb",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"鱼币*1000",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"鱼币*5000",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_3d_fish_lock",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_3d_fish_frozen",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"锁定*3",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"冰冻*3",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"鱼币*1000",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"鱼币*2000",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"鱼币*10000",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"锁定*5",</t>
+  </si>
+  <si>
+    <t>"冰冻*5",</t>
+  </si>
+  <si>
+    <t>"鱼币*2000",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"鱼币*5000",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"鱼币*20000",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"鱼币*30000",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"鱼币*20000",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"鱼币*30000",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"鱼币*50000",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"鱼币*100000",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3dby_icon_hedansp_1_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"初级核弹碎片*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"3dby_icon_hedansp_2_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"中级核弹碎片*1",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -83,7 +563,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,8 +599,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,6 +618,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -164,7 +663,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -175,6 +674,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -453,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I31" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -464,13 +984,11 @@
     <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="2" max="2" width="20.375" customWidth="1"/>
     <col min="3" max="3" width="24.875" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="40.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.875" customWidth="1"/>
     <col min="6" max="6" width="18.75" customWidth="1"/>
-    <col min="7" max="7" width="42.375" customWidth="1"/>
-    <col min="8" max="8" width="31.5" customWidth="1"/>
-    <col min="9" max="9" width="38" customWidth="1"/>
-    <col min="10" max="10" width="36.625" customWidth="1"/>
+    <col min="7" max="8" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -506,11 +1024,11 @@
       <c r="B2">
         <v>15001</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
       </c>
       <c r="E2">
         <v>10000000</v>
@@ -518,11 +1036,1621 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>15002</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>15003</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>15004</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>15005</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>15006</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>15007</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>15008</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>15009</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>15010</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B12">
+        <v>15011</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13">
         <v>12</v>
+      </c>
+      <c r="B13">
+        <v>15012</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>15013</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>15014</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>15015</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>15016</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>15017</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>15018</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>15019</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>15020</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>15021</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>15022</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>15023</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>15024</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>15025</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>15026</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>15027</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>15028</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>15029</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>15030</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>15031</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>15032</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>15033</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>15034</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>15035</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>15036</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>15037</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>15038</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>15039</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>15040</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>15041</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>15042</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>15043</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>15044</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>15045</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>15046</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>15047</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>15048</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>15049</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>15050</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>15051</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>15052</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>15053</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>15054</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>15055</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>15056</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>15057</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>15058</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>15059</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>15060</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>15061</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>15062</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>15063</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>15064</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>15065</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>15066</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>15067</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>15068</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>15069</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>15070</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>15071</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -533,26 +2661,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="37.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="37.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -565,11 +2694,277 @@
       <c r="B2">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>55</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>60</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B14">
+        <v>65</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15">
         <v>14</v>
+      </c>
+      <c r="B15">
+        <v>70</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>75</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>80</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>85</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>90</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>95</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/config_11.10/by3d_shtx_config.xlsx
+++ b/config_11.10/by3d_shtx_config.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29280" windowHeight="11790" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29280" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="task_info" sheetId="1" r:id="rId1"/>
     <sheet name="extra_award|额外奖励" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="140">
   <si>
     <t>line|行号</t>
   </si>
@@ -527,6 +527,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -547,6 +548,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -556,6 +558,10 @@
   </si>
   <si>
     <t>"中级核弹碎片*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_id|相同类型图标为单独ID</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -663,7 +669,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -696,6 +702,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -973,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I31" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -984,14 +996,15 @@
     <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="2" max="2" width="20.375" customWidth="1"/>
     <col min="3" max="3" width="24.875" customWidth="1"/>
-    <col min="4" max="4" width="40.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.875" customWidth="1"/>
-    <col min="6" max="6" width="18.75" customWidth="1"/>
-    <col min="7" max="8" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.625" customWidth="1"/>
+    <col min="4" max="4" width="24.875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.875" customWidth="1"/>
+    <col min="7" max="7" width="18.75" customWidth="1"/>
+    <col min="8" max="9" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1002,22 +1015,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1027,23 +1043,26 @@
       <c r="C2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="11">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>10000000</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>115</v>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1053,20 +1072,23 @@
       <c r="C3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>115</v>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1076,20 +1098,23 @@
       <c r="C4" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1099,20 +1124,23 @@
       <c r="C5" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1122,20 +1150,23 @@
       <c r="C6" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1145,20 +1176,23 @@
       <c r="C7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="11">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1168,20 +1202,23 @@
       <c r="C8" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="11">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1191,20 +1228,23 @@
       <c r="C9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="11">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1214,20 +1254,23 @@
       <c r="C10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="11">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>115</v>
+      <c r="G10">
+        <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1237,20 +1280,23 @@
       <c r="C11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>115</v>
+      <c r="G11">
+        <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1260,20 +1306,23 @@
       <c r="C12" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="11">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>115</v>
+      <c r="G12">
+        <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1283,20 +1332,23 @@
       <c r="C13" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="11">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>115</v>
+      <c r="G13">
+        <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1306,20 +1358,23 @@
       <c r="C14" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>115</v>
+      <c r="G14">
+        <v>0</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1329,20 +1384,23 @@
       <c r="C15" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="11">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>115</v>
+      <c r="G15">
+        <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1352,20 +1410,23 @@
       <c r="C16" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="11">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>115</v>
+      <c r="G16">
+        <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1375,20 +1436,23 @@
       <c r="C17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="11">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1398,20 +1462,23 @@
       <c r="C18" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="11">
+        <v>2</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1421,20 +1488,23 @@
       <c r="C19" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="11">
+        <v>2</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1444,20 +1514,23 @@
       <c r="C20" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="11">
+        <v>2</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1467,20 +1540,23 @@
       <c r="C21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="11">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1490,20 +1566,23 @@
       <c r="C22" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="11">
+        <v>2</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1513,20 +1592,23 @@
       <c r="C23" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="11">
+        <v>2</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>115</v>
+      <c r="G23">
+        <v>0</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1536,20 +1618,23 @@
       <c r="C24" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="11">
+        <v>2</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>115</v>
+      <c r="G24">
+        <v>0</v>
       </c>
       <c r="H24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1559,20 +1644,23 @@
       <c r="C25" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="11">
+        <v>2</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>115</v>
+      <c r="G25">
+        <v>0</v>
       </c>
       <c r="H25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1582,20 +1670,23 @@
       <c r="C26" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="11">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>115</v>
+      <c r="G26">
+        <v>0</v>
       </c>
       <c r="H26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1605,20 +1696,23 @@
       <c r="C27" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="11">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>115</v>
+      <c r="G27">
+        <v>0</v>
       </c>
       <c r="H27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1628,20 +1722,23 @@
       <c r="C28" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="11">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>115</v>
+      <c r="G28">
+        <v>0</v>
       </c>
       <c r="H28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1651,20 +1748,23 @@
       <c r="C29" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="11">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>115</v>
+      <c r="G29">
+        <v>0</v>
       </c>
       <c r="H29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1674,20 +1774,23 @@
       <c r="C30" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="11">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>115</v>
+      <c r="G30">
+        <v>0</v>
       </c>
       <c r="H30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1697,20 +1800,23 @@
       <c r="C31" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="11">
+        <v>2</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>115</v>
+      <c r="G31">
+        <v>0</v>
       </c>
       <c r="H31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1720,20 +1826,23 @@
       <c r="C32" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="11">
+        <v>2</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>115</v>
+      <c r="G32">
+        <v>0</v>
       </c>
       <c r="H32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1743,20 +1852,23 @@
       <c r="C33" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="11">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>115</v>
+      <c r="G33">
+        <v>0</v>
       </c>
       <c r="H33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1766,20 +1878,23 @@
       <c r="C34" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="11">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>115</v>
+      <c r="G34">
+        <v>0</v>
       </c>
       <c r="H34" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1789,20 +1904,23 @@
       <c r="C35" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="11">
+        <v>2</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>115</v>
+      <c r="G35">
+        <v>0</v>
       </c>
       <c r="H35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1812,20 +1930,23 @@
       <c r="C36" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="11">
+        <v>2</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>115</v>
+      <c r="G36">
+        <v>0</v>
       </c>
       <c r="H36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1835,20 +1956,23 @@
       <c r="C37" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="11">
+        <v>2</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>115</v>
+      <c r="G37">
+        <v>0</v>
       </c>
       <c r="H37" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1858,20 +1982,23 @@
       <c r="C38" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="11">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>115</v>
+      <c r="G38">
+        <v>0</v>
       </c>
       <c r="H38" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1881,20 +2008,23 @@
       <c r="C39" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="11">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>115</v>
+      <c r="G39">
+        <v>0</v>
       </c>
       <c r="H39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1904,20 +2034,23 @@
       <c r="C40" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="11">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>115</v>
+      <c r="G40">
+        <v>0</v>
       </c>
       <c r="H40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1927,20 +2060,23 @@
       <c r="C41" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="11">
+        <v>1</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>115</v>
+      <c r="G41">
+        <v>0</v>
       </c>
       <c r="H41" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1950,20 +2086,23 @@
       <c r="C42" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="11">
+        <v>1</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>115</v>
+      <c r="G42">
+        <v>0</v>
       </c>
       <c r="H42" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I42" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1973,20 +2112,23 @@
       <c r="C43" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="11">
+        <v>1</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>115</v>
+      <c r="G43">
+        <v>0</v>
       </c>
       <c r="H43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1996,20 +2138,23 @@
       <c r="C44" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="11">
+        <v>2</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>115</v>
+      <c r="G44">
+        <v>0</v>
       </c>
       <c r="H44" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I44" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2019,20 +2164,23 @@
       <c r="C45" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="11">
+        <v>2</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>115</v>
+      <c r="G45">
+        <v>0</v>
       </c>
       <c r="H45" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2042,20 +2190,23 @@
       <c r="C46" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="11">
+        <v>2</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>115</v>
+      <c r="G46">
+        <v>0</v>
       </c>
       <c r="H46" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2065,20 +2216,23 @@
       <c r="C47" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="11">
+        <v>1</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>115</v>
+      <c r="G47">
+        <v>0</v>
       </c>
       <c r="H47" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2088,20 +2242,23 @@
       <c r="C48" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="11">
+        <v>1</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>115</v>
+      <c r="G48">
+        <v>0</v>
       </c>
       <c r="H48" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2111,20 +2268,23 @@
       <c r="C49" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="11">
+        <v>2</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>115</v>
+      <c r="G49">
+        <v>0</v>
       </c>
       <c r="H49" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2134,20 +2294,23 @@
       <c r="C50" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="11">
+        <v>2</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>115</v>
+      <c r="G50">
+        <v>0</v>
       </c>
       <c r="H50" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I50" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2157,20 +2320,23 @@
       <c r="C51" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="11">
+        <v>2</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>115</v>
+      <c r="G51">
+        <v>0</v>
       </c>
       <c r="H51" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2180,20 +2346,23 @@
       <c r="C52" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="11">
+        <v>1</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>115</v>
+      <c r="G52">
+        <v>0</v>
       </c>
       <c r="H52" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2203,20 +2372,23 @@
       <c r="C53" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="11">
+        <v>1</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>115</v>
+      <c r="G53">
+        <v>0</v>
       </c>
       <c r="H53" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2226,20 +2398,23 @@
       <c r="C54" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="11">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>115</v>
+      <c r="G54">
+        <v>0</v>
       </c>
       <c r="H54" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I54" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2249,20 +2424,23 @@
       <c r="C55" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="11">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>115</v>
+      <c r="G55">
+        <v>0</v>
       </c>
       <c r="H55" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I55" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2272,20 +2450,23 @@
       <c r="C56" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="11">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>115</v>
+      <c r="G56">
+        <v>0</v>
       </c>
       <c r="H56" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I56" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2295,20 +2476,23 @@
       <c r="C57" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="11">
+        <v>2</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>115</v>
+      <c r="G57">
+        <v>0</v>
       </c>
       <c r="H57" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I57" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2318,20 +2502,23 @@
       <c r="C58" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="11">
+        <v>2</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>115</v>
+      <c r="G58">
+        <v>0</v>
       </c>
       <c r="H58" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I58" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2341,20 +2528,23 @@
       <c r="C59" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="11">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>115</v>
+      <c r="G59">
+        <v>0</v>
       </c>
       <c r="H59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I59" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2364,20 +2554,23 @@
       <c r="C60" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="11">
+        <v>2</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>115</v>
+      <c r="G60">
+        <v>0</v>
       </c>
       <c r="H60" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I60" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2387,20 +2580,23 @@
       <c r="C61" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="11">
+        <v>1</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>115</v>
+      <c r="G61">
+        <v>0</v>
       </c>
       <c r="H61" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I61" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2410,20 +2606,23 @@
       <c r="C62" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="11">
+        <v>2</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>115</v>
+      <c r="G62">
+        <v>0</v>
       </c>
       <c r="H62" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I62" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2433,20 +2632,23 @@
       <c r="C63" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="11">
+        <v>2</v>
+      </c>
+      <c r="E63" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>115</v>
+      <c r="G63">
+        <v>0</v>
       </c>
       <c r="H63" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I63" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2456,20 +2658,23 @@
       <c r="C64" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="11">
+        <v>1</v>
+      </c>
+      <c r="E64" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>115</v>
+      <c r="G64">
+        <v>0</v>
       </c>
       <c r="H64" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I64" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2479,20 +2684,23 @@
       <c r="C65" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="11">
+        <v>1</v>
+      </c>
+      <c r="E65" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>115</v>
+      <c r="G65">
+        <v>0</v>
       </c>
       <c r="H65" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I65" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2502,20 +2710,23 @@
       <c r="C66" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="11">
+        <v>1</v>
+      </c>
+      <c r="E66" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>115</v>
+      <c r="G66">
+        <v>0</v>
       </c>
       <c r="H66" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I66" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2525,20 +2736,23 @@
       <c r="C67" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="11">
+        <v>1</v>
+      </c>
+      <c r="E67" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>115</v>
+      <c r="G67">
+        <v>0</v>
       </c>
       <c r="H67" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I67" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2548,20 +2762,23 @@
       <c r="C68" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="11">
+        <v>1</v>
+      </c>
+      <c r="E68" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>115</v>
+      <c r="G68">
+        <v>0</v>
       </c>
       <c r="H68" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I68" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2571,20 +2788,23 @@
       <c r="C69" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="11">
+        <v>1</v>
+      </c>
+      <c r="E69" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>115</v>
+      <c r="G69">
+        <v>0</v>
       </c>
       <c r="H69" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I69" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2594,20 +2814,23 @@
       <c r="C70" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="11">
+        <v>1</v>
+      </c>
+      <c r="E70" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>115</v>
+      <c r="G70">
+        <v>0</v>
       </c>
       <c r="H70" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I70" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2617,20 +2840,23 @@
       <c r="C71" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="11">
+        <v>1</v>
+      </c>
+      <c r="E71" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>115</v>
+      <c r="G71">
+        <v>0</v>
       </c>
       <c r="H71" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I71" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2640,16 +2866,19 @@
       <c r="C72" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="11">
+        <v>1</v>
+      </c>
+      <c r="E72" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>115</v>
+      <c r="G72">
+        <v>0</v>
       </c>
       <c r="H72" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I72" s="2" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2663,8 +2892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
